--- a/URS/DbLayouts/L8-遵循法令作業/TbJcicMu01.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/TbJcicMu01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F77C714-A7BE-46CA-B92B-F64802C29C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90768B2F-477D-4851-97D5-487A126B5EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -331,18 +331,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>EmpIdEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpIdRcEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EmpId=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -355,10 +343,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FindByKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>HeadOfficeCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -405,6 +389,22 @@
   <si>
     <t>EmpId</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>empIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>empIdRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1083,11 +1083,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="14"/>
@@ -1162,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>29</v>
@@ -1182,10 +1182,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>50</v>
@@ -2106,9 +2106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2132,34 +2132,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/URS/DbLayouts/L8-遵循法令作業/TbJcicMu01.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/TbJcicMu01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90768B2F-477D-4851-97D5-487A126B5EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -207,18 +206,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>QryUserId</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthQryType</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthItemQuery</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>AuthItemReview</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -227,38 +214,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>AuthStartDay</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthMgrNameS</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthMgrIdS</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>AuthEndDay</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>AuthMgrNameE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthMgrIdE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>EmailAccount</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>ModifyUserId</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>總行代號</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -267,10 +230,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>職稱</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -299,19 +258,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>起日授權主管中文姓名</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>起日授權主管員工代號</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>授權迄日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>迄日授權主管中文姓名</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -371,10 +322,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>EmpName</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>DataDate</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -405,12 +352,40 @@
   <si>
     <t>findByKey</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthQryType</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>QryUserId</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthItemQuery</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthStartDay</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthMgrIdS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthMgrIdE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyUserId</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -637,7 +612,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,23 +703,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -780,23 +738,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -972,11 +913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1024,7 +965,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1048,7 +989,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -1061,7 +1002,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="18" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1074,7 +1015,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="18" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1083,11 +1024,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="14"/>
@@ -1122,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>3</v>
@@ -1145,7 +1086,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>3</v>
@@ -1162,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>29</v>
@@ -1182,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1202,16 +1143,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="18">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -1222,16 +1163,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="18">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -1242,16 +1183,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -1262,16 +1203,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -1282,10 +1223,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
@@ -1302,10 +1243,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>3</v>
@@ -1322,16 +1263,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E20" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1342,16 +1283,16 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E21" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1362,16 +1303,16 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E22" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -1382,16 +1323,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="18">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1402,16 +1343,16 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E24" s="18">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -1422,16 +1363,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -1442,16 +1383,16 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E26" s="18">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1462,16 +1403,16 @@
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E27" s="18">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1482,16 +1423,16 @@
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1502,13 +1443,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E29" s="18">
         <v>8</v>
@@ -1522,80 +1463,47 @@
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E30" s="18">
-        <v>8</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+        <v>6</v>
+      </c>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>22</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="18">
-        <v>6</v>
-      </c>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
-        <v>23</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="18">
-        <v>8</v>
-      </c>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
-        <v>24</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="18">
-        <v>6</v>
-      </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1604,7 +1512,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1613,7 +1521,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1622,7 +1530,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1631,7 +1539,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1640,7 +1548,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1649,7 +1557,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1658,7 +1566,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1667,7 +1575,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -1676,7 +1584,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -1685,7 +1593,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -1694,7 +1602,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -1703,7 +1611,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -1712,7 +1620,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -1721,14 +1629,12 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
@@ -1754,6 +1660,8 @@
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
@@ -2052,38 +1960,11 @@
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2103,10 +1984,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -2132,34 +2013,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
